--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Synapse\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Synapse\PycharmProjects\Selenium_With_Python\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12908453-399B-464E-BE38-B28FF569B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965017A2-A107-4CB3-8CC8-20E2117649BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2159013A-F8A3-4CC7-B084-05F0F9E935D8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>admin@admin.com</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Amin</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>List</t>
   </si>
 </sst>
 </file>
@@ -417,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031093F3-8632-4B96-B4D5-4E082E6C7676}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +443,7 @@
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -438,59 +453,86 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D83C9F3D-A15C-4BB1-9E07-A0A1A75214F8}"/>
-    <hyperlink ref="A3:A7" r:id="rId2" display="admin@admin.com" xr:uid="{F32A6E09-E81F-4732-BF54-B1787B2EE6D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
